--- a/create-data/create_reference_data/source/memberships.xlsx
+++ b/create-data/create_reference_data/source/memberships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tariff\create-data\create_reference_data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC238F3-27FD-4179-82C8-259E915276C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED8BAC1-4EDB-4885-8E16-02B04BBE1B8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3269AFA0-939B-4FC8-BA4D-39018C951832}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>1013</t>
   </si>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>Update type</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>Remove EU from Canada re-imports</t>
+  </si>
+  <si>
+    <t>Add GB to Canada re-imports</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>Add GB to Switzerland re-imports</t>
+  </si>
+  <si>
+    <t>Remove EU from Switzerland re-imports</t>
   </si>
 </sst>
 </file>
@@ -674,11 +698,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758DDF48-55B2-44D4-81D9-E189CA6975FE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +757,7 @@
         <v>39264</v>
       </c>
       <c r="F2" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -759,7 +783,7 @@
         <v>32143</v>
       </c>
       <c r="F3" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -785,7 +809,7 @@
         <v>31107</v>
       </c>
       <c r="F4" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -811,7 +835,7 @@
         <v>41275</v>
       </c>
       <c r="F5" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -837,7 +861,7 @@
         <v>41275</v>
       </c>
       <c r="F6" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -863,7 +887,7 @@
         <v>31107</v>
       </c>
       <c r="F7" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -889,7 +913,7 @@
         <v>36892</v>
       </c>
       <c r="F8" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -915,7 +939,7 @@
         <v>31107</v>
       </c>
       <c r="F9" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -941,7 +965,7 @@
         <v>31107</v>
       </c>
       <c r="F10" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -967,7 +991,7 @@
         <v>41275</v>
       </c>
       <c r="F11" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -993,7 +1017,7 @@
         <v>41275</v>
       </c>
       <c r="F12" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
@@ -1019,7 +1043,7 @@
         <v>31107</v>
       </c>
       <c r="F13" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
@@ -1045,7 +1069,7 @@
         <v>31107</v>
       </c>
       <c r="F14" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
@@ -1068,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
@@ -1091,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
@@ -1114,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
@@ -1137,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G18" s="6">
         <v>3</v>
@@ -1160,7 +1184,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G19" s="6">
         <v>3</v>
@@ -1183,7 +1207,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G20" s="6">
         <v>3</v>
@@ -1206,7 +1230,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G21" s="6">
         <v>3</v>
@@ -1229,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G22" s="6">
         <v>3</v>
@@ -1252,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G23" s="6">
         <v>3</v>
@@ -1275,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G24" s="6">
         <v>3</v>
@@ -1298,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G25" s="6">
         <v>3</v>
@@ -1321,7 +1345,7 @@
         <v>62</v>
       </c>
       <c r="E26" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G26" s="6">
         <v>3</v>
@@ -1344,7 +1368,7 @@
         <v>64</v>
       </c>
       <c r="E27" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G27" s="6">
         <v>3</v>
@@ -1367,7 +1391,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="8">
-        <v>43554</v>
+        <v>43568</v>
       </c>
       <c r="G28" s="6">
         <v>3</v>
@@ -1393,13 +1417,111 @@
         <v>34820</v>
       </c>
       <c r="F29" s="8">
-        <v>43553</v>
+        <v>43567</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8">
+        <v>43568</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="8">
+        <v>42999</v>
+      </c>
+      <c r="F31" s="8">
+        <v>43567</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="8">
+        <v>43568</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="8">
+        <v>39083</v>
+      </c>
+      <c r="F33" s="8">
+        <v>43567</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/create-data/create_reference_data/source/memberships.xlsx
+++ b/create-data/create_reference_data/source/memberships.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tariff\create-data\create_reference_data\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.admin/projects/tariffs/create-data/create_reference_data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED8BAC1-4EDB-4885-8E16-02B04BBE1B8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C76C26-6EF6-6948-B79E-48BAE783C961}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3269AFA0-939B-4FC8-BA4D-39018C951832}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{3269AFA0-939B-4FC8-BA4D-39018C951832}"/>
   </bookViews>
   <sheets>
-    <sheet name="New" sheetId="1" r:id="rId1"/>
+    <sheet name="Memberships" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>1013</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Add Wallis and Futuna to the EU</t>
   </si>
   <si>
-    <t>Add Ghana to the TPS</t>
-  </si>
-  <si>
     <t>1032</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>CM</t>
   </si>
   <si>
-    <t>Add Cameroon to the TPS</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -291,6 +285,30 @@
   </si>
   <si>
     <t>Remove EU from Switzerland re-imports</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Adding Eswatini (formerly Swaziland) to the TPM (Transitional Protection Measure)</t>
+  </si>
+  <si>
+    <t>Adding Cameroon to the TPM (Transitional Protection Measure)</t>
+  </si>
+  <si>
+    <t>Adding Zimbabwe to the TPM (Transitional Protection Measure)</t>
+  </si>
+  <si>
+    <t>Adding Ghana to the TPM (Transitional Protection Measure)</t>
   </si>
 </sst>
 </file>
@@ -698,23 +716,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758DDF48-55B2-44D4-81D9-E189CA6975FE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="74.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="74.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,13 +752,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -757,7 +775,7 @@
         <v>39264</v>
       </c>
       <c r="F2" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -766,12 +784,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
@@ -783,7 +801,7 @@
         <v>32143</v>
       </c>
       <c r="F3" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -792,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -809,7 +827,7 @@
         <v>31107</v>
       </c>
       <c r="F4" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -818,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -835,7 +853,7 @@
         <v>41275</v>
       </c>
       <c r="F5" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -844,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -861,7 +879,7 @@
         <v>41275</v>
       </c>
       <c r="F6" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -870,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -887,7 +905,7 @@
         <v>31107</v>
       </c>
       <c r="F7" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -896,7 +914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -913,7 +931,7 @@
         <v>36892</v>
       </c>
       <c r="F8" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -922,7 +940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -939,7 +957,7 @@
         <v>31107</v>
       </c>
       <c r="F9" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -948,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -965,7 +983,7 @@
         <v>31107</v>
       </c>
       <c r="F10" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -974,7 +992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>41275</v>
       </c>
       <c r="F11" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -1000,7 +1018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>41275</v>
       </c>
       <c r="F12" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
@@ -1026,7 +1044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>31107</v>
       </c>
       <c r="F13" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
@@ -1052,7 +1070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>31107</v>
       </c>
       <c r="F14" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
@@ -1078,7 +1096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
@@ -1101,7 +1119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
@@ -1124,7 +1142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
@@ -1147,7 +1165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G18" s="6">
         <v>3</v>
@@ -1170,7 +1188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G19" s="6">
         <v>3</v>
@@ -1193,7 +1211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G20" s="6">
         <v>3</v>
@@ -1216,7 +1234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G21" s="6">
         <v>3</v>
@@ -1239,7 +1257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G22" s="6">
         <v>3</v>
@@ -1262,7 +1280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G23" s="6">
         <v>3</v>
@@ -1285,7 +1303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G24" s="6">
         <v>3</v>
@@ -1308,7 +1326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G25" s="6">
         <v>3</v>
@@ -1331,107 +1349,110 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E27" s="8">
-        <v>43568</v>
+        <v>34820</v>
+      </c>
+      <c r="F27" s="8">
+        <v>43769</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E28" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G28" s="6">
         <v>3</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E29" s="8">
-        <v>34820</v>
+        <v>42999</v>
       </c>
       <c r="F29" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>9</v>
@@ -1440,88 +1461,131 @@
         <v>8</v>
       </c>
       <c r="E30" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G30" s="6">
         <v>3</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="8">
-        <v>42999</v>
+        <v>39083</v>
       </c>
       <c r="F31" s="8">
-        <v>43567</v>
+        <v>43769</v>
       </c>
       <c r="G31" s="6">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8">
-        <v>43568</v>
+        <v>43770</v>
       </c>
       <c r="G32" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E33" s="8">
-        <v>39083</v>
-      </c>
-      <c r="F33" s="8">
-        <v>43567</v>
+        <v>43770</v>
       </c>
       <c r="G33" s="6">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="8">
+        <v>43770</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="8">
+        <v>43770</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
